--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMonke\Documents\Desktop\MA\Jaar3\Unity-maze-gen-Develop\Unity-maze-gen-Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMonke\Documents\Desktop\MA\Jaar3\DTT_Maze_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1748C677-8BF9-4562-A2B4-CB266EF2A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1BA70-F449-4DAA-A166-B79977DB75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Subject</t>
   </si>
@@ -76,83 +76,104 @@
     </r>
   </si>
   <si>
-    <t>Rescearch</t>
-  </si>
-  <si>
-    <t>Looking at diffrent algorithms to find one or two I could use. Also looking at potential perfomance issues when using maze generators.</t>
-  </si>
-  <si>
-    <t>Start on Recursive Backtracking Algorithm</t>
-  </si>
-  <si>
-    <t>Created a basic tilemap(empty) for the maze. Added a cell and maze generator class. It can grave a path, but 2 outer walls are twice as thick.</t>
-  </si>
-  <si>
-    <t>Fixing walls &amp; stackoverslow</t>
-  </si>
-  <si>
-    <t>Fixed the inconsisted outer wall size. Then I tried to make a maze of 250x250, but there where many stackoverflows. Added entrens &amp; exit in the outer wall.</t>
-  </si>
-  <si>
-    <t>Adding runtime algorithm</t>
-  </si>
-  <si>
-    <t>Making it so that you can see the algorithm in runtime by giving it some delay. Also giving the tiles respective colors, like in what state they are.</t>
-  </si>
-  <si>
-    <t>User interface</t>
-  </si>
-  <si>
-    <t>Making a generate button, a toggle for slowly generatarion, height and witdth setters and a wait time setter.</t>
-  </si>
-  <si>
-    <t>Cameracontroller &amp; abstract generator</t>
-  </si>
-  <si>
-    <t>If you want to see all of the maze with diffrent sizes, there is a camera needed to adjust to that. If i want to have multipol algorithms, then I can reuse some stuff, so i made a abstract script.</t>
-  </si>
-  <si>
-    <t>Code clean-up</t>
-  </si>
-  <si>
-    <t>Cleaning every code that does not look good or is not needed. Also adding summarys and comments where needed or missing.</t>
-  </si>
-  <si>
-    <t>For fun why not have a second algorithm, but there is a Coroutine continue failure error when regenerating the other algorithm.</t>
-  </si>
-  <si>
-    <t>Adding Prim's algorithm</t>
-  </si>
-  <si>
-    <t>Trying to fix dead end</t>
-  </si>
-  <si>
-    <t>Coroutine error</t>
-  </si>
-  <si>
-    <t>When using RB the deaed ends are back at turning red, idk how or why, it happend when added prim's.</t>
-  </si>
-  <si>
-    <t>Also trying to fix a error when slowly generating a maze and wanting to generate with the diffrent one, I get Coroutine continue failure error, with no information given. I needed of the other class to stop it's coroutines aswell.</t>
-  </si>
-  <si>
-    <t>Adding sounds</t>
-  </si>
-  <si>
-    <t>Adding 2 sound effect, when a tile is used by an algorithm and when the maze is done.</t>
-  </si>
-  <si>
-    <t>21/11/2023</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Investigated various maze generation algorithms to identify suitable options for implementation.</t>
+  </si>
+  <si>
+    <t>Established a foundational tilemap for the maze, incorporating a cell and maze generator class.
+Initially encountered issues with inconsistent outer wall thickness, promptly addressed and resolved.</t>
+  </si>
+  <si>
+    <t>Attempted to generate a maze of size 250x250, encountered stack overflow errors.
+Implemented entrance and exit points within the outer wall.</t>
+  </si>
+  <si>
+    <t>Enabled real-time visualization of the algorithm with adjustable delays.
+Assigned distinct colors to tiles based on their state.
+Integrated features such as a 'Generate' button, toggle for slow generation, and setters for height, width, and wait time.</t>
+  </si>
+  <si>
+    <t>Recognized the need for camera adjustments to accommodate various maze sizes.
+Emphasized code reusability by creating an abstract script for multiple algorithms.</t>
+  </si>
+  <si>
+    <t>Conducted a thorough cleanup, removing redundant or aesthetically displeasing code.
+Inserted comments and summaries where necessary to enhance code readability.</t>
+  </si>
+  <si>
+    <t>Attempted integration of a second algorithm, encountering coroutine continuation errors during regeneration.
+Successfully resolved coroutine issues by ensuring proper termination of coroutines in both algorithm classes.</t>
+  </si>
+  <si>
+    <t>Observed a recurrence of dead ends turning red when using RB (presumably Recursive Backtracking) after the addition of Prim's algorithm.
+Investigated and addressed the unexpected behavior.</t>
+  </si>
+  <si>
+    <t>Algorithm Exploration:</t>
+  </si>
+  <si>
+    <t>Basic Maze Structure:</t>
+  </si>
+  <si>
+    <t>Size Scaling and Stack Overflow:</t>
+  </si>
+  <si>
+    <t>Visualization and User Controls:</t>
+  </si>
+  <si>
+    <t>Camera Adjustment and Code Reusability:</t>
+  </si>
+  <si>
+    <t>Multiple Algorithms and Coroutine Issues:</t>
+  </si>
+  <si>
+    <t>RB Dead Ends Coloring Issue:</t>
+  </si>
+  <si>
+    <t>Investigated and rectified Coroutine continuation failures when switching algorithms during slow generation.
+Ensured proper interaction between classes by incorporating mechanisms to halt coroutines in the inactive class.</t>
+  </si>
+  <si>
+    <t>Error Handling and Class Interaction:</t>
+  </si>
+  <si>
+    <t>Code Refinement:</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>26/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple enterance function and UI elements: </t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Added support for multiple entrances, modified code and UI for flexibility, conducted testing, and documented changes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -165,22 +186,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color indexed="8"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
@@ -219,19 +226,86 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color indexed="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,18 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEB5340"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -276,69 +344,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,7 +510,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,35 +521,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -550,7 +531,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -561,113 +544,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1926,399 +1921,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.61328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.69140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.4609375" style="1" customWidth="1"/>
-    <col min="7" max="251" width="6.4609375" customWidth="1"/>
+    <col min="1" max="1" width="24.69140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.61328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="52.69140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.4609375" style="1" customWidth="1"/>
+    <col min="6" max="250" width="6.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26">
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="27">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="C11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="C13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="32">
+        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
         <v>15</v>
       </c>
-      <c r="B8" s="27">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="27">
-        <v>2</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="27">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="27">
-        <v>2</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="27">
-        <v>2</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="18">
-        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>14</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMonke\Documents\Desktop\MA\Jaar3\DTT_Maze_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1BA70-F449-4DAA-A166-B79977DB75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371D0C4-1356-48AB-AC55-CF71AC56191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMonke\Documents\Desktop\MA\Jaar3\DTT_Maze_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371D0C4-1356-48AB-AC55-CF71AC56191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E690C3-1261-4652-8E74-9FED661ECFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Subject</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Added support for multiple entrances, modified code and UI for flexibility, conducted testing, and documented changes.</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>Final Touches:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added a button to exit the generator and made a build to see how if it works like that. Then </t>
   </si>
 </sst>
 </file>
@@ -1923,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2125,10 +2134,18 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -2235,7 +2252,7 @@
       </c>
       <c r="B29" s="32">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="34"/>
